--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_219.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_219.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6257352941176471</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.04, 110.76)]</t>
+          <t>[('0:02:00.541156', '0:02:23.041292')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:57.952131', '0:02:31.098616')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08363903154805576</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[('0:00:44.310045', '0:00:50.196303')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:52.750498', '0:00:59.809365')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[('0:00:11.500000', '0:00:28.960000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(78.32, 99.6)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:57.480000', '0:01:04.580000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D6" t="inlineStr">
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1846153846153846</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[('0:00:23.020000', '0:00:32.580000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:45.760000', '0:00:55.480000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:01:36.260000', '0:01:47.180000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:34.860000', '0:00:42.080000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3863636363636364</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F#:min', 'B:min(6)', 'C#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[['C#:min', 'D#:hdim7', 'G#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[('0:01:16.680000', '0:01:21.618000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.382952', '0:00:12.684467')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5789473684210527</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.52, 29.1)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.357029', '0:00:23.632675')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(65.382154, 74.101247)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.78, 16.74)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.4, 18.24)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
